--- a/results/bott index quasicrystal.xlsx
+++ b/results/bott index quasicrystal.xlsx
@@ -232,15 +232,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>16</v>
       </c>
@@ -740,10 +740,10 @@
         <v>-6</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M11" s="7" t="n">
+      <c r="G11" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="5" t="n">
         <f aca="false">ROUND((K11/576)*100,2)</f>
         <v>0</v>
       </c>
@@ -1070,25 +1070,25 @@
         <v>43.92</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+    <row r="28" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="D28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="G28" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6" t="n">
+      <c r="B28" s="6"/>
+      <c r="D28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="G28" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7" t="n">
         <v>276</v>
       </c>
-      <c r="M28" s="6" t="n">
+      <c r="M28" s="7" t="n">
         <f aca="false">ROUND((K28/576)*100,2)</f>
         <v>47.92</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="M51" s="7" t="n">
+      <c r="M51" s="5" t="n">
         <f aca="false">ROUND((K51/576)*100,2)</f>
         <v>0</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="G58" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="M58" s="7" t="n">
+      <c r="M58" s="5" t="n">
         <f aca="false">ROUND((K58/576)*100,2)</f>
         <v>0</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="B65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="M65" s="7" t="n">
+      <c r="M65" s="5" t="n">
         <f aca="false">ROUND((K65/576)*100,2)</f>
         <v>0</v>
       </c>
@@ -2218,22 +2218,22 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+    <row r="22" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5" t="n">
+      <c r="B22" s="6"/>
+      <c r="D22" s="6" t="n">
         <v>-5</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="G22" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K22" s="6" t="n">
+      <c r="E22" s="6"/>
+      <c r="G22" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K22" s="7" t="n">
         <v>379</v>
       </c>
-      <c r="M22" s="6" t="n">
+      <c r="M22" s="7" t="n">
         <f aca="false">ROUND((K22/484)*100,2)</f>
         <v>78.31</v>
       </c>
@@ -3324,22 +3324,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.64"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3425,6 +3428,18 @@
       </c>
       <c r="C8" s="1" t="n">
         <v>48.92</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <f aca="false">ROUND(1/A9,4)</f>
+        <v>0.025</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>49.25</v>
       </c>
     </row>
   </sheetData>
@@ -4027,10 +4042,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="L26" activeCellId="0" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4105,7 +4120,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2"/>
       <c r="D7" s="2" t="n">
@@ -4115,12 +4130,15 @@
       <c r="G7" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" s="1" t="n">
-        <v>1007</v>
+        <v>860</v>
       </c>
       <c r="M7" s="1" t="n">
         <f aca="false">ROUND((K7/1600)*100,2)</f>
-        <v>62.94</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,357 +4149,422 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="D9" s="2" t="n">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" s="1" t="n">
-        <v>1275</v>
+        <v>846</v>
       </c>
       <c r="M9" s="1" t="n">
         <f aca="false">ROUND((K9/1600)*100,2)</f>
-        <v>79.69</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="n">
+        <v>18</v>
+      </c>
       <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-2</v>
+      </c>
       <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/1600)*100,2)</f>
+        <v>50.75</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="n">
+        <v>18</v>
+      </c>
       <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-1.5</v>
+      </c>
       <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/1600)*100,2)</f>
+        <v>49.69</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="n">
+        <v>18</v>
+      </c>
       <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-1.4</v>
+      </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/1600)*100,2)</f>
+        <v>49.44</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2"/>
       <c r="D13" s="2" t="n">
-        <v>-14</v>
+        <v>-1.3</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="G13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>1397</v>
-      </c>
-      <c r="M13" s="1" t="n">
+      <c r="G13" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>787</v>
+      </c>
+      <c r="M13" s="5" t="n">
         <f aca="false">ROUND((K13/1600)*100,2)</f>
-        <v>87.31</v>
+        <v>49.19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2"/>
       <c r="D14" s="2" t="n">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="E14" s="2"/>
       <c r="G14" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" s="1" t="n">
-        <v>1359</v>
+        <v>777</v>
       </c>
       <c r="M14" s="1" t="n">
         <f aca="false">ROUND((K14/1600)*100,2)</f>
-        <v>84.94</v>
-      </c>
-    </row>
-    <row r="15" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="G15" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>1319</v>
-      </c>
-      <c r="M15" s="6" t="n">
+        <v>48.56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="M15" s="1" t="n">
         <f aca="false">ROUND((K15/1600)*100,2)</f>
-        <v>82.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="2" t="n">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="E16" s="2"/>
       <c r="G16" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" s="1" t="n">
-        <v>1275</v>
+        <v>774</v>
       </c>
       <c r="M16" s="1" t="n">
         <f aca="false">ROUND((K16/1600)*100,2)</f>
-        <v>79.69</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="n">
+        <v>17</v>
+      </c>
       <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="n">
+        <v>-2.3</v>
+      </c>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>1342</v>
-      </c>
-      <c r="M18" s="1" t="n">
+      <c r="G17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">ROUND((K17/1600)*100,2)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="D18" s="6" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="G18" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>788</v>
+      </c>
+      <c r="M18" s="7" t="n">
         <f aca="false">ROUND((K18/1600)*100,2)</f>
-        <v>83.88</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2"/>
       <c r="D19" s="2" t="n">
-        <v>-11</v>
+        <v>-2.5</v>
       </c>
       <c r="E19" s="2"/>
       <c r="G19" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I19" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" s="1" t="n">
-        <v>1323</v>
+        <v>791</v>
       </c>
       <c r="M19" s="1" t="n">
         <f aca="false">ROUND((K19/1600)*100,2)</f>
-        <v>82.69</v>
+        <v>49.44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>26</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="D20" s="2" t="n">
-        <v>-13</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>1336</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <f aca="false">ROUND((K20/1600)*100,2)</f>
-        <v>83.5</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>25</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="D21" s="2" t="n">
-        <v>-13</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>1311</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <f aca="false">ROUND((K21/1600)*100,2)</f>
-        <v>81.94</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>24</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="D22" s="2" t="n">
-        <v>-13</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>1285</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <f aca="false">ROUND((K22/1600)*100,2)</f>
-        <v>80.31</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>23</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="D23" s="2" t="n">
-        <v>-13</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>1257</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <f aca="false">ROUND((K23/1600)*100,2)</f>
-        <v>78.56</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="n">
+        <v>28</v>
+      </c>
       <c r="B24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="n">
+        <v>-14</v>
+      </c>
       <c r="E24" s="2"/>
+      <c r="G24" s="1" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2"/>
       <c r="D25" s="2" t="n">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="E25" s="2"/>
       <c r="G25" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="K25" s="1" t="n">
-        <v>1228</v>
-      </c>
       <c r="M25" s="1" t="n">
         <f aca="false">ROUND((K25/1600)*100,2)</f>
-        <v>76.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="2" t="n">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="E26" s="2"/>
       <c r="G26" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="K26" s="1" t="n">
-        <v>1178</v>
-      </c>
       <c r="M26" s="1" t="n">
         <f aca="false">ROUND((K26/1600)*100,2)</f>
-        <v>73.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>22</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="D27" s="2" t="n">
-        <v>-8</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="G27" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>1124</v>
-      </c>
       <c r="M27" s="1" t="n">
         <f aca="false">ROUND((K27/1600)*100,2)</f>
-        <v>70.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="G28" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <f aca="false">ROUND((K28/1600)*100,2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
       <c r="B29" s="2"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
+      <c r="D29" s="2" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="G29" s="1" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="n">
+        <v>26</v>
+      </c>
       <c r="B30" s="2"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
+      <c r="D30" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="G30" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <f aca="false">ROUND((K30/1600)*100,2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="B31" s="2"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
+      <c r="D31" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="G31" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <f aca="false">ROUND((K31/1600)*100,2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2" t="n">
+        <v>24</v>
+      </c>
       <c r="B32" s="2"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
+      <c r="D32" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="G32" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <f aca="false">ROUND((K32/1600)*100,2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="n">
+        <v>23</v>
+      </c>
       <c r="B33" s="2"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
+      <c r="D33" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <f aca="false">ROUND((K33/1600)*100,2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
@@ -4490,55 +4573,152 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="n">
+        <v>24</v>
+      </c>
       <c r="B35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="n">
+        <v>-10</v>
+      </c>
       <c r="E35" s="2"/>
+      <c r="G35" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <f aca="false">ROUND((K35/1600)*100,2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="n">
+        <v>23</v>
+      </c>
       <c r="B36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="n">
+        <v>-9</v>
+      </c>
       <c r="E36" s="2"/>
+      <c r="G36" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <f aca="false">ROUND((K36/1600)*100,2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="n">
+        <v>22</v>
+      </c>
       <c r="B37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2" t="n">
+        <v>-8</v>
+      </c>
       <c r="E37" s="2"/>
+      <c r="G37" s="1" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="85">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A3:B3"/>
@@ -4569,31 +4749,30 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="A35:B35"/>
@@ -4602,16 +4781,29 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4796,7 +4988,7 @@
         <v>87.53</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>26</v>
       </c>
@@ -4805,10 +4997,10 @@
         <v>-12</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="G15" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K15" s="7" t="n">
+      <c r="G15" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K15" s="5" t="n">
         <v>1229</v>
       </c>
       <c r="M15" s="1" t="n">
@@ -4856,22 +5048,22 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+    <row r="18" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="D18" s="5" t="n">
+      <c r="B18" s="6"/>
+      <c r="D18" s="6" t="n">
         <v>-9</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="G18" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K18" s="6" t="n">
+      <c r="E18" s="6"/>
+      <c r="G18" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="7" t="n">
         <v>1103</v>
       </c>
-      <c r="M18" s="6" t="n">
+      <c r="M18" s="7" t="n">
         <f aca="false">ROUND((K18/1444)*100,2)</f>
         <v>76.39</v>
       </c>
@@ -5505,7 +5697,7 @@
         <v>80.25</v>
       </c>
     </row>
-    <row r="14" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>22</v>
       </c>
@@ -5514,13 +5706,13 @@
         <v>-10</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="G14" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K14" s="7" t="n">
+      <c r="G14" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="5" t="n">
         <v>1023</v>
       </c>
-      <c r="M14" s="7" t="n">
+      <c r="M14" s="5" t="n">
         <f aca="false">ROUND((K14/1296)*100,2)</f>
         <v>78.94</v>
       </c>
@@ -5694,7 +5886,7 @@
         <v>50.77</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>16</v>
       </c>
@@ -5703,21 +5895,21 @@
         <v>-1.5</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="G23" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="7" t="n">
+      <c r="G23" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="n">
         <v>643</v>
       </c>
-      <c r="M23" s="7" t="n">
+      <c r="M23" s="5" t="n">
         <f aca="false">ROUND((K23/1296)*100,2)</f>
         <v>49.61</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>16</v>
       </c>
@@ -5726,16 +5918,16 @@
         <v>-1.3</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="G24" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7" t="n">
+      <c r="G24" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="n">
         <v>636</v>
       </c>
-      <c r="M24" s="7" t="n">
+      <c r="M24" s="5" t="n">
         <f aca="false">ROUND((K24/1296)*100,2)</f>
         <v>49.07</v>
       </c>
@@ -5749,7 +5941,7 @@
         <v>-1.2</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="9" t="n">
         <v>1.5</v>
       </c>
@@ -5764,7 +5956,7 @@
         <v>48.92</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>16</v>
       </c>
@@ -5773,21 +5965,21 @@
         <v>-1.1</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="G26" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7" t="n">
+      <c r="G26" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="n">
         <v>631</v>
       </c>
-      <c r="M26" s="7" t="n">
+      <c r="M26" s="5" t="n">
         <f aca="false">ROUND((K26/1296)*100,2)</f>
         <v>48.69</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>16</v>
       </c>
@@ -5796,16 +5988,16 @@
         <v>-1</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="G27" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7" t="n">
+      <c r="G27" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="n">
         <v>627</v>
       </c>
-      <c r="M27" s="7" t="n">
+      <c r="M27" s="5" t="n">
         <f aca="false">ROUND((K27/1296)*100,2)</f>
         <v>48.38</v>
       </c>
@@ -5819,7 +6011,7 @@
         <v>-2</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="G28" s="7" t="n">
+      <c r="G28" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="I28" s="1" t="n">
@@ -5922,10 +6114,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="G33" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M33" s="7" t="n">
+      <c r="G33" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M33" s="5" t="n">
         <f aca="false">ROUND((K33/1296)*100,2)</f>
         <v>0</v>
       </c>
@@ -6495,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
@@ -6505,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
@@ -7338,7 +7530,7 @@
         <v>80.22</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>20</v>
       </c>
@@ -7347,13 +7539,13 @@
         <v>-6</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="G27" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K27" s="7" t="n">
+      <c r="G27" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K27" s="5" t="n">
         <v>705</v>
       </c>
-      <c r="M27" s="7" t="n">
+      <c r="M27" s="5" t="n">
         <f aca="false">ROUND((K27/900)*100,2)</f>
         <v>78.33</v>
       </c>
@@ -8495,7 +8687,7 @@
         <v>-2</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="5" t="n">
         <v>1.5</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -8504,7 +8696,7 @@
       <c r="K7" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="M7" s="7" t="n">
+      <c r="M7" s="5" t="n">
         <f aca="false">ROUND((K7/676)*100,2)</f>
         <v>50.89</v>
       </c>
@@ -8619,7 +8811,7 @@
       <c r="K12" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="M12" s="7" t="n">
+      <c r="M12" s="5" t="n">
         <f aca="false">ROUND((K12/676)*100,2)</f>
         <v>47.78</v>
       </c>
@@ -8629,14 +8821,14 @@
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
